--- a/Analysis/Output/Reg1_Robsf.xlsx
+++ b/Analysis/Output/Reg1_Robsf.xlsx
@@ -665,76 +665,76 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>1.38981216400803</v>
+        <v>0.151479224556669</v>
       </c>
       <c r="C2" t="n">
-        <v>15.3208291817937</v>
+        <v>15.3985787085685</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0907138998494679</v>
+        <v>0.00983722117628812</v>
       </c>
       <c r="E2" t="n">
-        <v>0.92942655293466</v>
+        <v>0.992332266976072</v>
       </c>
       <c r="F2" t="n">
-        <v>-9.23375356581953</v>
+        <v>-9.2577323634066</v>
       </c>
       <c r="G2" t="n">
-        <v>19.0175674937593</v>
+        <v>18.9887460246356</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.485538098857787</v>
+        <v>-0.48753784749113</v>
       </c>
       <c r="I2" t="n">
-        <v>0.639711496937147</v>
+        <v>0.638366525252717</v>
       </c>
       <c r="J2" t="n">
-        <v>12.8709064171866</v>
+        <v>12.8709541128362</v>
       </c>
       <c r="K2" t="n">
-        <v>0.179704939253255</v>
+        <v>0.179965664213883</v>
       </c>
       <c r="L2" t="n">
-        <v>71.6224410451395</v>
+        <v>71.5189431776249</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0000000000000000331635109847208</v>
+        <v>0.0000000000000000338610732175364</v>
       </c>
       <c r="N2" t="n">
-        <v>13.0818218436559</v>
+        <v>13.0836002503467</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0790200448307441</v>
+        <v>0.0789995533183826</v>
       </c>
       <c r="P2" t="n">
-        <v>165.550676055377</v>
+        <v>165.616129468699</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.000000000000000000000139819932463622</v>
+        <v>0.000000000000000000000143536053670087</v>
       </c>
       <c r="R2" t="n">
-        <v>13.6777085341643</v>
+        <v>13.6786615290523</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0751986537252738</v>
+        <v>0.0750000072215011</v>
       </c>
       <c r="T2" t="n">
-        <v>181.887678257295</v>
+        <v>182.382136159727</v>
       </c>
       <c r="U2" t="n">
-        <v>0.000000000000000000000092481728138459</v>
+        <v>0.0000000000000000000000860658799897732</v>
       </c>
       <c r="V2" t="n">
-        <v>13.845232656951</v>
+        <v>13.8458115173618</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0898287979811831</v>
+        <v>0.089719534940042</v>
       </c>
       <c r="X2" t="n">
-        <v>154.129109685417</v>
+        <v>154.323264455335</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0000000000000000000195862451927143</v>
+        <v>0.0000000000000000000180411869781399</v>
       </c>
     </row>
     <row r="3">
@@ -742,76 +742,76 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0362514401974162</v>
+        <v>0.0376968692945023</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00898950556235314</v>
+        <v>0.00945190895356506</v>
       </c>
       <c r="D3" t="n">
-        <v>4.03264005411292</v>
+        <v>3.98828104245374</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00213151560717568</v>
+        <v>0.00229501502805187</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0453839620205159</v>
+        <v>0.045246855894196</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0106603898295991</v>
+        <v>0.0106011087689935</v>
       </c>
       <c r="H3" t="n">
-        <v>4.25725163394166</v>
+        <v>4.26812486129145</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00147083558768325</v>
+        <v>0.00144459851356619</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0569771041824311</v>
+        <v>0.0566859405247783</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0144441029934624</v>
+        <v>0.0142955837400394</v>
       </c>
       <c r="L3" t="n">
-        <v>3.94466199861769</v>
+        <v>3.96527637874703</v>
       </c>
       <c r="M3" t="n">
-        <v>0.00246561113190238</v>
+        <v>0.00238146546144842</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0557142871122884</v>
+        <v>0.0554624743609496</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0138864879928302</v>
+        <v>0.0137266708002194</v>
       </c>
       <c r="P3" t="n">
-        <v>4.01212222565234</v>
+        <v>4.04048987319366</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.00220583928916417</v>
+        <v>0.00210362972434363</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0941882677107049</v>
+        <v>0.0939977383462471</v>
       </c>
       <c r="S3" t="n">
-        <v>0.020307528473453</v>
+        <v>0.0200738010707522</v>
       </c>
       <c r="T3" t="n">
-        <v>4.63809605555065</v>
+        <v>4.68260784367356</v>
       </c>
       <c r="U3" t="n">
-        <v>0.000795768472224519</v>
+        <v>0.000741480835972773</v>
       </c>
       <c r="V3" t="n">
-        <v>0.158356398202531</v>
+        <v>0.158010321485687</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0102381204439597</v>
+        <v>0.0101456497222734</v>
       </c>
       <c r="X3" t="n">
-        <v>15.4673310466824</v>
+        <v>15.5741944391001</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0000000027189956470464</v>
+        <v>0.00000000246176278829288</v>
       </c>
     </row>
     <row r="4">
@@ -819,64 +819,64 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0000896993211553404</v>
+        <v>0.0000883947620066869</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0000448662421840174</v>
+        <v>0.0000485155112629486</v>
       </c>
       <c r="D4" t="n">
-        <v>1.99926084264962</v>
+        <v>1.82198970402676</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0649307295548645</v>
+        <v>0.0894645464459626</v>
       </c>
       <c r="F4" t="n">
-        <v>0.000172224425643008</v>
+        <v>0.000165856754846243</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0000763717684873544</v>
+        <v>0.0000749396707555614</v>
       </c>
       <c r="H4" t="n">
-        <v>2.25507971144501</v>
+        <v>2.21320367669129</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0403270925580946</v>
+        <v>0.0437137632316507</v>
       </c>
       <c r="J4" t="n">
-        <v>0.000275950709423601</v>
+        <v>0.000270444197368203</v>
       </c>
       <c r="K4" t="n">
-        <v>0.00012446934569659</v>
+        <v>0.000124482613986502</v>
       </c>
       <c r="L4" t="n">
-        <v>2.21701743412604</v>
+        <v>2.17254593800165</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0432751779601414</v>
+        <v>0.0471229509344412</v>
       </c>
       <c r="N4" t="n">
-        <v>0.000245319394080144</v>
+        <v>0.000240301807568118</v>
       </c>
       <c r="O4" t="n">
-        <v>0.000145503438451227</v>
+        <v>0.000145420083631255</v>
       </c>
       <c r="P4" t="n">
-        <v>1.68600410197437</v>
+        <v>1.6524664376996</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.113365931821678</v>
+        <v>0.120181649652791</v>
       </c>
       <c r="R4" t="n">
-        <v>0.00186622116603001</v>
+        <v>0.0018597112447499</v>
       </c>
       <c r="S4" t="n">
-        <v>0.00028798359772049</v>
+        <v>0.000288090795570462</v>
       </c>
       <c r="T4" t="n">
-        <v>6.48030367285474</v>
+        <v>6.45529559897048</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0000144682933323728</v>
+        <v>0.0000153383409575945</v>
       </c>
       <c r="V4"/>
       <c r="W4"/>
@@ -888,64 +888,64 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0238369300944722</v>
+        <v>0.0261914227019171</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00542864581439356</v>
+        <v>0.0074590014702112</v>
       </c>
       <c r="D5" t="n">
-        <v>4.39095327075323</v>
+        <v>3.51138457426467</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00090837936979541</v>
+        <v>0.00437169457094045</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0277745006723369</v>
+        <v>0.0274445958395246</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00637474151449101</v>
+        <v>0.00627091075101641</v>
       </c>
       <c r="H5" t="n">
-        <v>4.35696107978655</v>
+        <v>4.37649281407431</v>
       </c>
       <c r="I5" t="n">
-        <v>0.000962469497815561</v>
+        <v>0.000927409840072837</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0230828583043594</v>
+        <v>0.0230068366816765</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0102696128648555</v>
+        <v>0.00998034038473373</v>
       </c>
       <c r="L5" t="n">
-        <v>2.24768534200088</v>
+        <v>2.30521563341352</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0444734799672145</v>
+        <v>0.0400743956993725</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0215650751429964</v>
+        <v>0.021431278764153</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0118656580715491</v>
+        <v>0.0115268371579366</v>
       </c>
       <c r="P5" t="n">
-        <v>1.81743608428293</v>
+        <v>1.85925058804156</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0945458805272812</v>
+        <v>0.0879956464597523</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0869246321111169</v>
+        <v>0.0870496275008826</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0165073191630845</v>
+        <v>0.0160683079434062</v>
       </c>
       <c r="T5" t="n">
-        <v>5.26582367811168</v>
+        <v>5.41747319054863</v>
       </c>
       <c r="U5" t="n">
-        <v>0.000209051115094417</v>
+        <v>0.000162965187151531</v>
       </c>
       <c r="V5"/>
       <c r="W5"/>
@@ -957,64 +957,64 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0306981118223295</v>
+        <v>0.0306933213524395</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0072966736355727</v>
+        <v>0.0109327755496659</v>
       </c>
       <c r="D6" t="n">
-        <v>4.20713784876855</v>
+        <v>2.80745920493882</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00125945177024827</v>
+        <v>0.0159747295289984</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0355497780638124</v>
+        <v>0.0353536893164832</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00794454590211609</v>
+        <v>0.00791191678701571</v>
       </c>
       <c r="H6" t="n">
-        <v>4.47474009236242</v>
+        <v>4.46841015498322</v>
       </c>
       <c r="I6" t="n">
-        <v>0.000789460512716737</v>
+        <v>0.000794911853788163</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0279670293208411</v>
+        <v>0.0280225466431884</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0132150701555262</v>
+        <v>0.0131983989204625</v>
       </c>
       <c r="L6" t="n">
-        <v>2.11629821042955</v>
+        <v>2.12317772875791</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0562752269005912</v>
+        <v>0.0555553669030827</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0274569498383085</v>
+        <v>0.0276165307418115</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0140613091397</v>
+        <v>0.0140060516212229</v>
       </c>
       <c r="P6" t="n">
-        <v>1.95265956857374</v>
+        <v>1.97175702965175</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0749838526193134</v>
+        <v>0.0724945789925562</v>
       </c>
       <c r="R6" t="n">
-        <v>0.115789869857211</v>
+        <v>0.115781565016852</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0185778013045129</v>
+        <v>0.0184121486589559</v>
       </c>
       <c r="T6" t="n">
-        <v>6.23270041267387</v>
+        <v>6.28832447322948</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0000469483131668786</v>
+        <v>0.0000428986071350887</v>
       </c>
       <c r="V6"/>
       <c r="W6"/>
@@ -1026,64 +1026,64 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0116359710670854</v>
+        <v>0.0115808206110062</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00891421983716813</v>
+        <v>0.0119650350195964</v>
       </c>
       <c r="D7" t="n">
-        <v>1.30532691358686</v>
+        <v>0.967888567984891</v>
       </c>
       <c r="E7" t="n">
-        <v>0.216515353820098</v>
+        <v>0.352350080998434</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0153446058413494</v>
+        <v>0.0151727766097648</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00875919988725601</v>
+        <v>0.00874367105145929</v>
       </c>
       <c r="H7" t="n">
-        <v>1.75182734026594</v>
+        <v>1.73528676004257</v>
       </c>
       <c r="I7" t="n">
-        <v>0.105573427972854</v>
+        <v>0.108505241397256</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00312484743789261</v>
+        <v>0.00306944717865321</v>
       </c>
       <c r="K7" t="n">
-        <v>0.010665885292933</v>
+        <v>0.0106205841370803</v>
       </c>
       <c r="L7" t="n">
-        <v>0.292975908897416</v>
+        <v>0.289009261546796</v>
       </c>
       <c r="M7" t="n">
-        <v>0.774603825170153</v>
+        <v>0.777555219092989</v>
       </c>
       <c r="N7" t="n">
-        <v>0.00519412415315266</v>
+        <v>0.00518932899431276</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0106446785724022</v>
+        <v>0.010619859007621</v>
       </c>
       <c r="P7" t="n">
-        <v>0.487955001912332</v>
+        <v>0.488643869055963</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.634482916348301</v>
+        <v>0.633992752015434</v>
       </c>
       <c r="R7" t="n">
-        <v>0.084956007304744</v>
+        <v>0.0846376920638725</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0122351368226931</v>
+        <v>0.0121751683744058</v>
       </c>
       <c r="T7" t="n">
-        <v>6.94360909370235</v>
+        <v>6.95166501695328</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0000164458413762903</v>
+        <v>0.0000161004345470282</v>
       </c>
       <c r="V7"/>
       <c r="W7"/>
@@ -1095,64 +1095,64 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>0.000382306862776532</v>
+        <v>0.000386691785644356</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0133109751490209</v>
+        <v>0.015788620095983</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0287211762095923</v>
+        <v>0.0244918037987841</v>
       </c>
       <c r="E8" t="n">
-        <v>0.977617451247016</v>
+        <v>0.980912752722389</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.000294269766855195</v>
+        <v>-0.000584836857237066</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0138853371492169</v>
+        <v>0.0138440618959263</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.021192842758722</v>
+        <v>-0.042244600004942</v>
       </c>
       <c r="I8" t="n">
-        <v>0.983483249879079</v>
+        <v>0.967084348398767</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.0210278077272413</v>
+        <v>-0.0211552038302436</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0177394520178769</v>
+        <v>0.0176696464226287</v>
       </c>
       <c r="L8" t="n">
-        <v>-1.18536963295431</v>
+        <v>-1.19726243096473</v>
       </c>
       <c r="M8" t="n">
-        <v>0.261631395601542</v>
+        <v>0.2571544656376</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.0178160828067565</v>
+        <v>-0.0179378599993687</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0177687536754026</v>
+        <v>0.0176379448419491</v>
       </c>
       <c r="P8" t="n">
-        <v>-1.00266361570533</v>
+        <v>-1.0170039741085</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.338286848426617</v>
+        <v>0.331722230416919</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0485572771459487</v>
+        <v>0.0479384947312744</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0229581364587443</v>
+        <v>0.0227811804487732</v>
       </c>
       <c r="T8" t="n">
-        <v>2.11503565340358</v>
+        <v>2.10430248946367</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0589290212755609</v>
+        <v>0.060018268863909</v>
       </c>
       <c r="V8"/>
       <c r="W8"/>
@@ -1164,64 +1164,64 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>0.129490784114737</v>
+        <v>0.129850877107818</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0134115686855694</v>
+        <v>0.0164368965633796</v>
       </c>
       <c r="D9" t="n">
-        <v>9.65515572045402</v>
+        <v>7.89996314736916</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00000109814919958745</v>
+        <v>0.00000763939081861171</v>
       </c>
       <c r="F9" t="n">
-        <v>0.124666029969628</v>
+        <v>0.124580082901746</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0146633063257413</v>
+        <v>0.01467311994042</v>
       </c>
       <c r="H9" t="n">
-        <v>8.50190449549413</v>
+        <v>8.49036083720448</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00000379584828094492</v>
+        <v>0.00000383434117796664</v>
       </c>
       <c r="J9" t="n">
-        <v>0.10560683169928</v>
+        <v>0.105802580697259</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0190100273159893</v>
+        <v>0.0186699418849719</v>
       </c>
       <c r="L9" t="n">
-        <v>5.55532245923992</v>
+        <v>5.66700107312189</v>
       </c>
       <c r="M9" t="n">
-        <v>0.000175181916529276</v>
+        <v>0.000148183728804403</v>
       </c>
       <c r="N9" t="n">
-        <v>0.108472682646302</v>
+        <v>0.10872321382641</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0192520005686608</v>
+        <v>0.0188222481725484</v>
       </c>
       <c r="P9" t="n">
-        <v>5.63435899866312</v>
+        <v>5.77631390414772</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.000157083390302098</v>
+        <v>0.000127322076657252</v>
       </c>
       <c r="R9" t="n">
-        <v>0.220980641728754</v>
+        <v>0.221277188967814</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0274565128365082</v>
+        <v>0.0270082158642988</v>
       </c>
       <c r="T9" t="n">
-        <v>8.04838702731843</v>
+        <v>8.19295839753385</v>
       </c>
       <c r="U9" t="n">
-        <v>0.00000651729690659932</v>
+        <v>0.00000548929349223287</v>
       </c>
       <c r="V9"/>
       <c r="W9"/>
@@ -1233,64 +1233,64 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>0.173031614459187</v>
+        <v>0.172852906163092</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0154617068130359</v>
+        <v>0.017355490966743</v>
       </c>
       <c r="D10" t="n">
-        <v>11.1909775907342</v>
+        <v>9.95955150415033</v>
       </c>
       <c r="E10" t="n">
-        <v>0.000000247780042814315</v>
+        <v>0.000000800600748099404</v>
       </c>
       <c r="F10" t="n">
-        <v>0.170121967974433</v>
+        <v>0.169524871959892</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0164406272019101</v>
+        <v>0.0164031747502096</v>
       </c>
       <c r="H10" t="n">
-        <v>10.347656806832</v>
+        <v>10.3348817860838</v>
       </c>
       <c r="I10" t="n">
-        <v>0.000000546195247010258</v>
+        <v>0.000000552715430356583</v>
       </c>
       <c r="J10" t="n">
-        <v>0.138093460402645</v>
+        <v>0.137787017554134</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0204329933979159</v>
+        <v>0.0200781318901562</v>
       </c>
       <c r="L10" t="n">
-        <v>6.75835682581534</v>
+        <v>6.86254170995296</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0000319852656947355</v>
+        <v>0.0000278543989053347</v>
       </c>
       <c r="N10" t="n">
-        <v>0.135476949503747</v>
+        <v>0.135168972148257</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0213094913467411</v>
+        <v>0.0208725792840972</v>
       </c>
       <c r="P10" t="n">
-        <v>6.35758720371641</v>
+        <v>6.47591130489764</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0000553997351892041</v>
+        <v>0.0000470697937423751</v>
       </c>
       <c r="R10" t="n">
-        <v>0.244062710830273</v>
+        <v>0.243193976998989</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0257079374392581</v>
+        <v>0.0252290624559544</v>
       </c>
       <c r="T10" t="n">
-        <v>9.49367141595614</v>
+        <v>9.63943774857128</v>
       </c>
       <c r="U10" t="n">
-        <v>0.00000130272595025783</v>
+        <v>0.00000111960545904074</v>
       </c>
       <c r="V10"/>
       <c r="W10"/>
@@ -1302,64 +1302,64 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>0.138885493241194</v>
+        <v>0.139116035902617</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0267793201359599</v>
+        <v>0.0289039404245434</v>
       </c>
       <c r="D11" t="n">
-        <v>5.18629646070422</v>
+        <v>4.81304742049939</v>
       </c>
       <c r="E11" t="n">
-        <v>0.000150829381144552</v>
+        <v>0.000298157535173605</v>
       </c>
       <c r="F11" t="n">
-        <v>0.136813665081959</v>
+        <v>0.136278256930881</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0279382960847611</v>
+        <v>0.0280367048726148</v>
       </c>
       <c r="H11" t="n">
-        <v>4.89699388491284</v>
+        <v>4.86070875839596</v>
       </c>
       <c r="I11" t="n">
-        <v>0.000255265778709075</v>
+        <v>0.000272897244578152</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0993990106774492</v>
+        <v>0.0991697001969141</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0450607354962732</v>
+        <v>0.0448115254643175</v>
       </c>
       <c r="L11" t="n">
-        <v>2.20588966386645</v>
+        <v>2.2130400420285</v>
       </c>
       <c r="M11" t="n">
-        <v>0.045105183524503</v>
+        <v>0.0445092002429303</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0264434583228328</v>
+        <v>0.0267777878508966</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0434934899094002</v>
+        <v>0.043104267471997</v>
       </c>
       <c r="P11" t="n">
-        <v>0.607986583231567</v>
+        <v>0.621232871392443</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.5539143908143</v>
+        <v>0.54543601229348</v>
       </c>
       <c r="R11" t="n">
-        <v>0.199293263603277</v>
+        <v>0.198843879312755</v>
       </c>
       <c r="S11" t="n">
-        <v>0.058319960155556</v>
+        <v>0.0578252623796925</v>
       </c>
       <c r="T11" t="n">
-        <v>3.41723936490534</v>
+        <v>3.4387025865461</v>
       </c>
       <c r="U11" t="n">
-        <v>0.00474601391569455</v>
+        <v>0.00455644437603165</v>
       </c>
       <c r="V11"/>
       <c r="W11"/>
@@ -1371,52 +1371,52 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.0313086197945425</v>
+        <v>-0.03192848130646</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00556021615199675</v>
+        <v>0.00546626453508471</v>
       </c>
       <c r="D12" t="n">
-        <v>-5.63082782011976</v>
+        <v>-5.84100551693574</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0000404106264782329</v>
+        <v>0.0000267965465829638</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.0452601151731794</v>
+        <v>-0.0452472121130895</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00806212067677548</v>
+        <v>0.0080437324618266</v>
       </c>
       <c r="H12" t="n">
-        <v>-5.61392181880383</v>
+        <v>-5.62515129982513</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0000425396435166337</v>
+        <v>0.0000416153772449402</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.070951526124139</v>
+        <v>-0.0709171752933799</v>
       </c>
       <c r="K12" t="n">
-        <v>0.00924690622094414</v>
+        <v>0.00925307549866307</v>
       </c>
       <c r="L12" t="n">
-        <v>-7.6730015887297</v>
+        <v>-7.66417342035374</v>
       </c>
       <c r="M12" t="n">
-        <v>0.00000120953761060598</v>
+        <v>0.00000122503561011581</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.0709426538084529</v>
+        <v>-0.0708959111668026</v>
       </c>
       <c r="O12" t="n">
-        <v>0.00960804752701242</v>
+        <v>0.00961702788465685</v>
       </c>
       <c r="P12" t="n">
-        <v>-7.3836701586875</v>
+        <v>-7.37191490105909</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.00000188146229072253</v>
+        <v>0.00000191383737436419</v>
       </c>
       <c r="R12"/>
       <c r="S12"/>
@@ -1432,52 +1432,52 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>0.063015520052515</v>
+        <v>0.0648725946212705</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00668483691252768</v>
+        <v>0.00654558562047904</v>
       </c>
       <c r="D13" t="n">
-        <v>9.42663536554215</v>
+        <v>9.91089237581813</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0000000916129040381034</v>
+        <v>0.0000000461381496706111</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0739343942427683</v>
+        <v>0.0741530132703109</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00681061049953132</v>
+        <v>0.00674446300255503</v>
       </c>
       <c r="H13" t="n">
-        <v>10.8557660503205</v>
+        <v>10.9946504624933</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0000000136025183388195</v>
+        <v>0.0000000113313898178494</v>
       </c>
       <c r="J13" t="n">
-        <v>0.101703443209313</v>
+        <v>0.101838978491462</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0156160528495526</v>
+        <v>0.0156031186811562</v>
       </c>
       <c r="L13" t="n">
-        <v>6.51274968067409</v>
+        <v>6.52683483170912</v>
       </c>
       <c r="M13" t="n">
-        <v>0.00000916961410522348</v>
+        <v>0.00000891528595090589</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0989383527685261</v>
+        <v>0.0990685282955286</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0158490045399367</v>
+        <v>0.0158235377404181</v>
       </c>
       <c r="P13" t="n">
-        <v>6.24255943136485</v>
+        <v>6.26083306531875</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0000148799127472525</v>
+        <v>0.0000143604357523761</v>
       </c>
       <c r="R13"/>
       <c r="S13"/>
@@ -1493,52 +1493,52 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0371662114963025</v>
+        <v>0.0393517220093934</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00756239949312121</v>
+        <v>0.00745190797244469</v>
       </c>
       <c r="D14" t="n">
-        <v>4.9146056790717</v>
+        <v>5.2807579152757</v>
       </c>
       <c r="E14" t="n">
-        <v>0.000208132220921558</v>
+        <v>0.000103989600501889</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0442668447052896</v>
+        <v>0.0444818937387457</v>
       </c>
       <c r="G14" t="n">
-        <v>0.009277796301813</v>
+        <v>0.00916345208414214</v>
       </c>
       <c r="H14" t="n">
-        <v>4.77126714849725</v>
+        <v>4.8542725307337</v>
       </c>
       <c r="I14" t="n">
-        <v>0.00027239652953884</v>
+        <v>0.000231615282181031</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0316253948765868</v>
+        <v>0.031648636725637</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0102033817838783</v>
+        <v>0.0100255157367086</v>
       </c>
       <c r="L14" t="n">
-        <v>3.09950127775833</v>
+        <v>3.1568088422379</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0075840812453342</v>
+        <v>0.00674868356151829</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0286048238503857</v>
+        <v>0.0286503635080949</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0124326362456274</v>
+        <v>0.012161630826139</v>
       </c>
       <c r="P14" t="n">
-        <v>2.30078506965455</v>
+        <v>2.35579947440245</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.0370942472424948</v>
+        <v>0.0333740404813113</v>
       </c>
       <c r="R14"/>
       <c r="S14"/>
@@ -1554,52 +1554,52 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.044703196117003</v>
+        <v>-0.0446320193780136</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00883537392470396</v>
+        <v>0.00920434594448773</v>
       </c>
       <c r="D15" t="n">
-        <v>-5.05957036996607</v>
+        <v>-4.84901585046819</v>
       </c>
       <c r="E15" t="n">
-        <v>0.000133682377074568</v>
+        <v>0.000200769489580968</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.05096759870226</v>
+        <v>-0.0511456190559872</v>
       </c>
       <c r="G15" t="n">
-        <v>0.00987271621773409</v>
+        <v>0.0098108430144118</v>
       </c>
       <c r="H15" t="n">
-        <v>-5.16246973762988</v>
+        <v>-5.21317270909911</v>
       </c>
       <c r="I15" t="n">
-        <v>0.000110721445711825</v>
+        <v>0.000100092362221289</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.0423343906227285</v>
+        <v>-0.0424774956644321</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0224405432429096</v>
+        <v>0.0224242417506017</v>
       </c>
       <c r="L15" t="n">
-        <v>-1.88651362689736</v>
+        <v>-1.89426675545416</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0784968709846462</v>
+        <v>0.0773827929040684</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.0466691808926758</v>
+        <v>-0.0469053466166288</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0261038061424326</v>
+        <v>0.0260722771106255</v>
       </c>
       <c r="P15" t="n">
-        <v>-1.78783050402805</v>
+        <v>-1.79905063211809</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0939144393255817</v>
+        <v>0.0920381223747374</v>
       </c>
       <c r="R15"/>
       <c r="S15"/>
@@ -1615,52 +1615,52 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.075615385659982</v>
+        <v>-0.0791895744117037</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0132747292264197</v>
+        <v>0.0146343609636495</v>
       </c>
       <c r="D16" t="n">
-        <v>-5.69619043599701</v>
+        <v>-5.41120822483497</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0000692072916265379</v>
+        <v>0.000112615948469599</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.0974385200629038</v>
+        <v>-0.0967586178510393</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0170217165540162</v>
+        <v>0.0170686878208505</v>
       </c>
       <c r="H16" t="n">
-        <v>-5.72436509289151</v>
+        <v>-5.66877892821041</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0000661562248971418</v>
+        <v>0.0000726937995068093</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0461513126620565</v>
+        <v>-0.0456025786541098</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0394692226920027</v>
+        <v>0.0394785820037027</v>
       </c>
       <c r="L16" t="n">
-        <v>-1.16929874758866</v>
+        <v>-1.15512200133816</v>
       </c>
       <c r="M16" t="n">
-        <v>0.263175924929976</v>
+        <v>0.268734222309325</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.0375476449740202</v>
+        <v>-0.036878402057705</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0433162659169963</v>
+        <v>0.043363871221934</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.866825525680582</v>
+        <v>-0.850440724467686</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.401653598607895</v>
+        <v>0.410370075252541</v>
       </c>
       <c r="R16"/>
       <c r="S16"/>
@@ -1676,52 +1676,52 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>0.000184105025658925</v>
+        <v>0.000184781641754614</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00000911172070663166</v>
+        <v>0.00000979484092691174</v>
       </c>
       <c r="D17" t="n">
-        <v>20.2052972853887</v>
+        <v>18.865200888247</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0000000000188644627805302</v>
+        <v>0.000000000049788045310066</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00020301369085567</v>
+        <v>0.000202724729950673</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0000116111044962138</v>
+        <v>0.0000116120666232995</v>
       </c>
       <c r="H17" t="n">
-        <v>17.4844426662313</v>
+        <v>17.4581094414242</v>
       </c>
       <c r="I17" t="n">
-        <v>0.000000000163915043698025</v>
+        <v>0.000000000162763955545178</v>
       </c>
       <c r="J17" t="n">
-        <v>0.000257462360322411</v>
+        <v>0.000257169186022793</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0000169966329345276</v>
+        <v>0.0000170106819573873</v>
       </c>
       <c r="L17" t="n">
-        <v>15.1478449475362</v>
+        <v>15.118099713287</v>
       </c>
       <c r="M17" t="n">
-        <v>0.000000000986174161396602</v>
+        <v>0.000000000981821493550323</v>
       </c>
       <c r="N17" t="n">
-        <v>0.000265332927861464</v>
+        <v>0.000265038580009766</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0000162283281976726</v>
+        <v>0.0000162311160139096</v>
       </c>
       <c r="P17" t="n">
-        <v>16.349985323782</v>
+        <v>16.3290423026141</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.000000000320682730702986</v>
+        <v>0.000000000313495457670013</v>
       </c>
       <c r="R17"/>
       <c r="S17"/>
@@ -1737,52 +1737,52 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.000865406541199961</v>
+        <v>-0.00105197842454261</v>
       </c>
       <c r="C18" t="n">
-        <v>0.000976561543702805</v>
+        <v>0.000883422662581587</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.886177165976268</v>
+        <v>-1.1907985487586</v>
       </c>
       <c r="E18" t="n">
-        <v>0.390834218962641</v>
+        <v>0.254103337475098</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.00182816270305523</v>
+        <v>-0.00186735584633624</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00100423866636407</v>
+        <v>0.00100376472794899</v>
       </c>
       <c r="H18" t="n">
-        <v>-1.82044643797101</v>
+        <v>-1.86035212668993</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0906545188885508</v>
+        <v>0.0844871826641262</v>
       </c>
       <c r="J18" t="n">
-        <v>0.00463571767173033</v>
+        <v>0.00459644105540576</v>
       </c>
       <c r="K18" t="n">
-        <v>0.00200410687663657</v>
+        <v>0.00200008019271067</v>
       </c>
       <c r="L18" t="n">
-        <v>2.31310900919132</v>
+        <v>2.29812838113071</v>
       </c>
       <c r="M18" t="n">
-        <v>0.037574442637256</v>
+        <v>0.0386318223888308</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0044739590542045</v>
+        <v>0.00442049316422333</v>
       </c>
       <c r="O18" t="n">
-        <v>0.00190384575037061</v>
+        <v>0.00190366749138361</v>
       </c>
       <c r="P18" t="n">
-        <v>2.34995878911596</v>
+        <v>2.32209310934361</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.0359596738020823</v>
+        <v>0.0378698581021906</v>
       </c>
       <c r="R18"/>
       <c r="S18"/>
@@ -1798,52 +1798,52 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0191403747648104</v>
+        <v>0.0216565860311559</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0103523756775053</v>
+        <v>0.00959823014369763</v>
       </c>
       <c r="D19" t="n">
-        <v>1.84888718889911</v>
+        <v>2.25631035169292</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0865792708471843</v>
+        <v>0.0413226798561688</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0308342259621058</v>
+        <v>0.031188493630924</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0113253419565569</v>
+        <v>0.0113144743507574</v>
       </c>
       <c r="H19" t="n">
-        <v>2.72258675105646</v>
+        <v>2.75651282278405</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0167087286671479</v>
+        <v>0.015640372784558</v>
       </c>
       <c r="J19" t="n">
-        <v>0.00389746094629447</v>
+        <v>0.00427012438432631</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0220495703167238</v>
+        <v>0.0220479430366836</v>
       </c>
       <c r="L19" t="n">
-        <v>0.176759042934201</v>
+        <v>0.193674501844532</v>
       </c>
       <c r="M19" t="n">
-        <v>0.86230513144589</v>
+        <v>0.849296511286254</v>
       </c>
       <c r="N19" t="n">
-        <v>0.00300262107483744</v>
+        <v>0.00351047090814679</v>
       </c>
       <c r="O19" t="n">
-        <v>0.022321724150698</v>
+        <v>0.0223366502115064</v>
       </c>
       <c r="P19" t="n">
-        <v>0.134515642903129</v>
+        <v>0.157161923337028</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.894995994405129</v>
+        <v>0.877464278756685</v>
       </c>
       <c r="R19"/>
       <c r="S19"/>
@@ -1859,52 +1859,52 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.0424566604203188</v>
+        <v>-0.0455754969639166</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0140666828213571</v>
+        <v>0.0145036485863739</v>
       </c>
       <c r="D20" t="n">
-        <v>-3.01824253518094</v>
+        <v>-3.14234702340585</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0136757955862749</v>
+        <v>0.0111073640985066</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0606941140860609</v>
+        <v>-0.0608093565804151</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0161313047516662</v>
+        <v>0.016191950498313</v>
       </c>
       <c r="H20" t="n">
-        <v>-3.76250495669248</v>
+        <v>-3.75553004480534</v>
       </c>
       <c r="I20" t="n">
-        <v>0.00404139425762159</v>
+        <v>0.00406629074720069</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.0312129562864582</v>
+        <v>-0.031757144663498</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0322391007468977</v>
+        <v>0.0323002662717531</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.968170810082589</v>
+        <v>-0.983185228143767</v>
       </c>
       <c r="M20" t="n">
-        <v>0.357034052765518</v>
+        <v>0.349896043975958</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.0328402821979144</v>
+        <v>-0.0335868285036343</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0330486320181161</v>
+        <v>0.0331467511133826</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.993695659775343</v>
+        <v>-1.01327663724105</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.345112184751991</v>
+        <v>0.336070450923763</v>
       </c>
       <c r="R20"/>
       <c r="S20"/>
@@ -1920,52 +1920,52 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>0.114727997195797</v>
+        <v>0.115333022887982</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0104433701964814</v>
+        <v>0.0109214906970641</v>
       </c>
       <c r="D21" t="n">
-        <v>10.9857253968122</v>
+        <v>10.5601905533816</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0000000796464845858447</v>
+        <v>0.00000012371599211159</v>
       </c>
       <c r="F21" t="n">
-        <v>0.12012269381637</v>
+        <v>0.119962642065302</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0123400273263934</v>
+        <v>0.0122883054645626</v>
       </c>
       <c r="H21" t="n">
-        <v>9.73439447410676</v>
+        <v>9.76234212367634</v>
       </c>
       <c r="I21" t="n">
-        <v>0.000000314940458760051</v>
+        <v>0.000000302596209187515</v>
       </c>
       <c r="J21" t="n">
-        <v>0.156047063099362</v>
+        <v>0.15585888609061</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0223346423148057</v>
+        <v>0.022273048826918</v>
       </c>
       <c r="L21" t="n">
-        <v>6.98677242732998</v>
+        <v>6.99764488022171</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0000110859089749803</v>
+        <v>0.0000108565752972891</v>
       </c>
       <c r="N21" t="n">
-        <v>0.153552667503483</v>
+        <v>0.153305220229243</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0224623099987524</v>
+        <v>0.0224591270556865</v>
       </c>
       <c r="P21" t="n">
-        <v>6.83601408368111</v>
+        <v>6.82596522336459</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.000012893426144632</v>
+        <v>0.0000130463226366168</v>
       </c>
       <c r="R21"/>
       <c r="S21"/>
@@ -1981,52 +1981,52 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>0.059701577285819</v>
+        <v>0.0591152510854358</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00445141679668976</v>
+        <v>0.00472596921356364</v>
       </c>
       <c r="D22" t="n">
-        <v>13.4118147126136</v>
+        <v>12.50859843009</v>
       </c>
       <c r="E22" t="n">
-        <v>0.00000000250504656498624</v>
+        <v>0.00000000608264638945671</v>
       </c>
       <c r="F22" t="n">
-        <v>0.062548073370526</v>
+        <v>0.0625008277403599</v>
       </c>
       <c r="G22" t="n">
-        <v>0.00460737948232805</v>
+        <v>0.00465422288620378</v>
       </c>
       <c r="H22" t="n">
-        <v>13.5756287517522</v>
+        <v>13.4288428527192</v>
       </c>
       <c r="I22" t="n">
-        <v>0.00000000213850946341175</v>
+        <v>0.00000000242891663398335</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0784797988557492</v>
+        <v>0.0784464683007039</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0118329043744346</v>
+        <v>0.0119379370046863</v>
       </c>
       <c r="L22" t="n">
-        <v>6.63233610045116</v>
+        <v>6.57119134318679</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0000119003580622221</v>
+        <v>0.0000130705711144352</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0760299730401182</v>
+        <v>0.0758465733708579</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0128839613632641</v>
+        <v>0.0129512772668481</v>
       </c>
       <c r="P22" t="n">
-        <v>5.90113326922118</v>
+        <v>5.8563006418684</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.0000386727842541033</v>
+        <v>0.0000416549917162728</v>
       </c>
       <c r="R22"/>
       <c r="S22"/>
@@ -2042,52 +2042,52 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.0693143615462046</v>
+        <v>-0.0688061089074473</v>
       </c>
       <c r="C23" t="n">
-        <v>0.00900944966536114</v>
+        <v>0.00917410942885535</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.69351781970649</v>
+        <v>-7.50003141351588</v>
       </c>
       <c r="E23" t="n">
-        <v>0.000000877917449025503</v>
+        <v>0.00000121421016757192</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.0652785926373157</v>
+        <v>-0.0650668546353418</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0106974428218278</v>
+        <v>0.010641837731841</v>
       </c>
       <c r="H23" t="n">
-        <v>-6.10226142121711</v>
+        <v>-6.11424983869637</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0000148237767722534</v>
+        <v>0.0000144824983586517</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.0625580455639291</v>
+        <v>-0.0625592386197038</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0162314181881837</v>
+        <v>0.0161726007659338</v>
       </c>
       <c r="L23" t="n">
-        <v>-3.85413306703358</v>
+        <v>-3.86822376469464</v>
       </c>
       <c r="M23" t="n">
-        <v>0.00138703314418991</v>
+        <v>0.00134597196248967</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.0627495824438954</v>
+        <v>-0.0628588473144954</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0170293010331187</v>
+        <v>0.0170020971818383</v>
       </c>
       <c r="P23" t="n">
-        <v>-3.68480082193977</v>
+        <v>-3.69712316323197</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.0019758407774729</v>
+        <v>0.0019244012355233</v>
       </c>
       <c r="R23"/>
       <c r="S23"/>
@@ -2103,40 +2103,40 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0174052733323397</v>
+        <v>0.0174766276843102</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0142978341751139</v>
+        <v>0.0139713778264313</v>
       </c>
       <c r="D24" t="n">
-        <v>1.21733635452525</v>
+        <v>1.25088791538137</v>
       </c>
       <c r="E24" t="n">
-        <v>0.24546524332942</v>
+        <v>0.233388540633687</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0228655829064253</v>
+        <v>0.0228960782658998</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0141028311886038</v>
+        <v>0.0141663388670164</v>
       </c>
       <c r="H24" t="n">
-        <v>1.62134699058884</v>
+        <v>1.6162311575935</v>
       </c>
       <c r="I24" t="n">
-        <v>0.129348456972401</v>
+        <v>0.130452202848399</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0321065899195486</v>
+        <v>0.0320553773501883</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0184217852475503</v>
+        <v>0.0184962484536089</v>
       </c>
       <c r="L24" t="n">
-        <v>1.74285985251174</v>
+        <v>1.73307454376965</v>
       </c>
       <c r="M24" t="n">
-        <v>0.105426311288411</v>
+        <v>0.107197979179489</v>
       </c>
       <c r="N24"/>
       <c r="O24"/>
@@ -2156,40 +2156,40 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.0452193926240155</v>
+        <v>-0.0492504175123361</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0203100268547104</v>
+        <v>0.0224856287162479</v>
       </c>
       <c r="D25" t="n">
-        <v>-2.22645656490247</v>
+        <v>-2.19030644567871</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0881386777383055</v>
+        <v>0.0913579495847058</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.0484506668480132</v>
+        <v>-0.0515135154061545</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0233522167235796</v>
+        <v>0.0250956845861781</v>
       </c>
       <c r="H25" t="n">
-        <v>-2.07477805732639</v>
+        <v>-2.05268420669132</v>
       </c>
       <c r="I25" t="n">
-        <v>0.104723535024273</v>
+        <v>0.106954645391185</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.0725193622602786</v>
+        <v>-0.0738850577255934</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0288880635363766</v>
+        <v>0.0298676252573166</v>
       </c>
       <c r="L25" t="n">
-        <v>-2.51035733734663</v>
+        <v>-2.47375066109395</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0643157341780064</v>
+        <v>0.0665128734606556</v>
       </c>
       <c r="N25"/>
       <c r="O25"/>
@@ -2209,40 +2209,40 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.0219054639969502</v>
+        <v>-0.0312602678716062</v>
       </c>
       <c r="C26" t="n">
-        <v>0.017966716111706</v>
+        <v>0.0185974241819639</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.21922469641951</v>
+        <v>-1.68089234109759</v>
       </c>
       <c r="E26" t="n">
-        <v>0.242521370107216</v>
+        <v>0.114454810467514</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.0380023480837317</v>
+        <v>-0.0362851064705086</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0226618602548271</v>
+        <v>0.022726348024966</v>
       </c>
       <c r="H26" t="n">
-        <v>-1.67692976906593</v>
+        <v>-1.59660964580176</v>
       </c>
       <c r="I26" t="n">
-        <v>0.115294516371803</v>
+        <v>0.132137709297852</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.0407161298679442</v>
+        <v>-0.0383881964532146</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0252327682307387</v>
+        <v>0.0253030027884009</v>
       </c>
       <c r="L26" t="n">
-        <v>-1.61362120460266</v>
+        <v>-1.51713995268625</v>
       </c>
       <c r="M26" t="n">
-        <v>0.128493371263569</v>
+        <v>0.150972626380846</v>
       </c>
       <c r="N26"/>
       <c r="O26"/>
@@ -2262,40 +2262,40 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0800300558663111</v>
+        <v>0.0767547568214475</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0173559844475125</v>
+        <v>0.0179484857578018</v>
       </c>
       <c r="D27" t="n">
-        <v>4.61109285436016</v>
+        <v>4.27639177238581</v>
       </c>
       <c r="E27" t="n">
-        <v>0.000867067784971099</v>
+        <v>0.00149873400784276</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0923523884957122</v>
+        <v>0.0936915051028269</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0209533753451635</v>
+        <v>0.0211790458600556</v>
       </c>
       <c r="H27" t="n">
-        <v>4.40751845344236</v>
+        <v>4.42378309778027</v>
       </c>
       <c r="I27" t="n">
-        <v>0.00120100895162585</v>
+        <v>0.00117258656432386</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0873517882356137</v>
+        <v>0.0888348593044679</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0433085172774168</v>
+        <v>0.0438689602840652</v>
       </c>
       <c r="L27" t="n">
-        <v>2.01696556998416</v>
+        <v>2.02500489478744</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0712779506961349</v>
+        <v>0.0703353855720688</v>
       </c>
       <c r="N27"/>
       <c r="O27"/>
@@ -2315,40 +2315,40 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0226870271101705</v>
+        <v>0.00927918583941675</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0834828446266095</v>
+        <v>0.0905908099985747</v>
       </c>
       <c r="D28" t="n">
-        <v>0.271756756871929</v>
+        <v>0.102429659692443</v>
       </c>
       <c r="E28" t="n">
-        <v>0.806665759296191</v>
+        <v>0.926041175857679</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.0183193875938694</v>
+        <v>-0.0183288633727715</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0927129461435398</v>
+        <v>0.0927133012890265</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.197592551589364</v>
+        <v>-0.19769399986775</v>
       </c>
       <c r="I28" t="n">
-        <v>0.858578711121016</v>
+        <v>0.858496638124005</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.0406840723348758</v>
+        <v>-0.0406649466314073</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0631862867294805</v>
+        <v>0.0631669704952191</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.643875031129089</v>
+        <v>-0.643769145688016</v>
       </c>
       <c r="M28" t="n">
-        <v>0.589645350143579</v>
+        <v>0.589697086115941</v>
       </c>
       <c r="N28"/>
       <c r="O28"/>
@@ -2368,40 +2368,40 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>0.158718900691028</v>
+        <v>0.191556566725058</v>
       </c>
       <c r="C29" t="n">
-        <v>0.106067520938864</v>
+        <v>0.0760776525544986</v>
       </c>
       <c r="D29" t="n">
-        <v>1.49639493113553</v>
+        <v>2.51790848288643</v>
       </c>
       <c r="E29" t="n">
-        <v>0.373932364706024</v>
+        <v>0.23953539057689</v>
       </c>
       <c r="F29" t="n">
-        <v>0.241275222665219</v>
+        <v>0.241134505925293</v>
       </c>
       <c r="G29" t="n">
-        <v>0.105547543515034</v>
+        <v>0.105737135539617</v>
       </c>
       <c r="H29" t="n">
-        <v>2.28593877820427</v>
+        <v>2.28050915787241</v>
       </c>
       <c r="I29" t="n">
-        <v>0.261488805615833</v>
+        <v>0.262045261751851</v>
       </c>
       <c r="J29" t="n">
-        <v>0.3269633037721</v>
+        <v>0.326773783575698</v>
       </c>
       <c r="K29" t="n">
-        <v>0.108290764131427</v>
+        <v>0.108432286657892</v>
       </c>
       <c r="L29" t="n">
-        <v>3.01930923098188</v>
+        <v>3.0136206995863</v>
       </c>
       <c r="M29" t="n">
-        <v>0.202665381341403</v>
+        <v>0.203023754164648</v>
       </c>
       <c r="N29"/>
       <c r="O29"/>
@@ -2421,40 +2421,40 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.084578507936315</v>
+        <v>-0.0815311749094504</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0384603776418804</v>
+        <v>0.0341853898168651</v>
       </c>
       <c r="D30" t="n">
-        <v>-2.19910757829417</v>
+        <v>-2.38497133852274</v>
       </c>
       <c r="E30" t="n">
-        <v>0.122926904806491</v>
+        <v>0.104984269375964</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.0467326827216884</v>
+        <v>-0.0465333912761191</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0403799302027817</v>
+        <v>0.040526266143968</v>
       </c>
       <c r="H30" t="n">
-        <v>-1.15732450469835</v>
+        <v>-1.14822794458317</v>
       </c>
       <c r="I30" t="n">
-        <v>0.338152576943397</v>
+        <v>0.341523878343143</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.0489650301312366</v>
+        <v>-0.0489377575287539</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0591405016376657</v>
+        <v>0.0590995003929779</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.827944112331498</v>
+        <v>-0.828057042840392</v>
       </c>
       <c r="M30" t="n">
-        <v>0.476042692406329</v>
+        <v>0.476107634180122</v>
       </c>
       <c r="N30"/>
       <c r="O30"/>
@@ -2474,40 +2474,40 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>0.00410018725651277</v>
+        <v>-0.00571054451496227</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0295662119014991</v>
+        <v>0.0313773688975641</v>
       </c>
       <c r="D31" t="n">
-        <v>0.138678139430668</v>
+        <v>-0.181995645766385</v>
       </c>
       <c r="E31" t="n">
-        <v>0.893025749138419</v>
+        <v>0.859943102146496</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0159666798948582</v>
+        <v>0.0160631616352728</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0294865570809055</v>
+        <v>0.0294990216059427</v>
       </c>
       <c r="H31" t="n">
-        <v>0.541490139084353</v>
+        <v>0.544532013632505</v>
       </c>
       <c r="I31" t="n">
-        <v>0.602640106161078</v>
+        <v>0.60064530419702</v>
       </c>
       <c r="J31" t="n">
-        <v>0.00339739582091549</v>
+        <v>0.00307815800803575</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0451971151210886</v>
+        <v>0.0452711180838496</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0751684219626287</v>
+        <v>0.0679938587408973</v>
       </c>
       <c r="M31" t="n">
-        <v>0.941931661655305</v>
+        <v>0.94746450416503</v>
       </c>
       <c r="N31"/>
       <c r="O31"/>
@@ -2527,40 +2527,40 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0435763229083566</v>
+        <v>-0.000990604410360635</v>
       </c>
       <c r="C32" t="n">
-        <v>0.144864181124168</v>
+        <v>0.145065902635712</v>
       </c>
       <c r="D32" t="n">
-        <v>0.300808126413292</v>
+        <v>-0.00682865092597416</v>
       </c>
       <c r="E32" t="n">
-        <v>0.773347606064092</v>
+        <v>0.994765111235739</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.0233637819416889</v>
+        <v>-0.0227983279035668</v>
       </c>
       <c r="G32" t="n">
-        <v>0.146318639870571</v>
+        <v>0.14636035820447</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.159677413365486</v>
+        <v>-0.155768462056623</v>
       </c>
       <c r="I32" t="n">
-        <v>0.878205528407075</v>
+        <v>0.881158812188057</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.0238500999757657</v>
+        <v>-0.0233030944585607</v>
       </c>
       <c r="K32" t="n">
-        <v>0.145066520574053</v>
+        <v>0.145094912342819</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.164408023859583</v>
+        <v>-0.160605868822622</v>
       </c>
       <c r="M32" t="n">
-        <v>0.87463787607125</v>
+        <v>0.877507854275308</v>
       </c>
       <c r="N32"/>
       <c r="O32"/>
@@ -2580,40 +2580,40 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0391247338900424</v>
+        <v>0.0293812648514601</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0456949957133597</v>
+        <v>0.0445098909512067</v>
       </c>
       <c r="D33" t="n">
-        <v>0.856214849771912</v>
+        <v>0.660106421821362</v>
       </c>
       <c r="E33" t="n">
-        <v>0.437652708372233</v>
+        <v>0.543237495126973</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0368988195405188</v>
+        <v>0.036845617465813</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0528501656395143</v>
+        <v>0.0530271982218512</v>
       </c>
       <c r="H33" t="n">
-        <v>0.69817793556603</v>
+        <v>0.694843753797082</v>
       </c>
       <c r="I33" t="n">
-        <v>0.52163104725971</v>
+        <v>0.523273838183746</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.0982040558156596</v>
+        <v>-0.0990667057802918</v>
       </c>
       <c r="K33" t="n">
-        <v>0.104231396901273</v>
+        <v>0.104295188721298</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.942173459583177</v>
+        <v>-0.949868416701577</v>
       </c>
       <c r="M33" t="n">
-        <v>0.406511679787697</v>
+        <v>0.402615323845478</v>
       </c>
       <c r="N33"/>
       <c r="O33"/>
@@ -2633,40 +2633,40 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>0.365494425022273</v>
+        <v>0.362481645918092</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2702965757755</v>
+        <v>0.273693316436566</v>
       </c>
       <c r="D34" t="n">
-        <v>1.35219776267473</v>
+        <v>1.32440810260745</v>
       </c>
       <c r="E34" t="n">
-        <v>0.404223730101584</v>
+        <v>0.410542138559529</v>
       </c>
       <c r="F34" t="n">
-        <v>0.50900840904822</v>
+        <v>0.509844374485416</v>
       </c>
       <c r="G34" t="n">
-        <v>0.194212210161832</v>
+        <v>0.195021687022104</v>
       </c>
       <c r="H34" t="n">
-        <v>2.62088778364695</v>
+        <v>2.61429578561501</v>
       </c>
       <c r="I34" t="n">
-        <v>0.230830550536017</v>
+        <v>0.231363382092743</v>
       </c>
       <c r="J34" t="n">
-        <v>0.348463209885305</v>
+        <v>0.349219474878983</v>
       </c>
       <c r="K34" t="n">
-        <v>0.22742106757212</v>
+        <v>0.228430844144416</v>
       </c>
       <c r="L34" t="n">
-        <v>1.53223803583984</v>
+        <v>1.5287754864584</v>
       </c>
       <c r="M34" t="n">
-        <v>0.36719398304336</v>
+        <v>0.367853374175249</v>
       </c>
       <c r="N34"/>
       <c r="O34"/>
@@ -2686,40 +2686,40 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0434585991447511</v>
+        <v>0.0411308727237303</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0527764183712374</v>
+        <v>0.0536746403851585</v>
       </c>
       <c r="D35" t="n">
-        <v>0.823447298735899</v>
+        <v>0.766299921687101</v>
       </c>
       <c r="E35" t="n">
-        <v>0.426140795539863</v>
+        <v>0.458148690520593</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0499729539617854</v>
+        <v>0.0499845890481453</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0603491245236914</v>
+        <v>0.0603711266253354</v>
       </c>
       <c r="H35" t="n">
-        <v>0.828064273611251</v>
+        <v>0.827955213729085</v>
       </c>
       <c r="I35" t="n">
-        <v>0.423621779790693</v>
+        <v>0.42368114842018</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0808448178600006</v>
+        <v>0.0808511411863144</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0734288184388222</v>
+        <v>0.0734956321294345</v>
       </c>
       <c r="L35" t="n">
-        <v>1.10099576132165</v>
+        <v>1.10008090064354</v>
       </c>
       <c r="M35" t="n">
-        <v>0.29228099549019</v>
+        <v>0.292663796336761</v>
       </c>
       <c r="N35"/>
       <c r="O35"/>
@@ -2739,40 +2739,40 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>0.108784979801577</v>
+        <v>0.109527835421025</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0537270120866918</v>
+        <v>0.0550471512508991</v>
       </c>
       <c r="D36" t="n">
-        <v>2.02477255995635</v>
+        <v>1.98970942059851</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0667257040313915</v>
+        <v>0.0709271254220214</v>
       </c>
       <c r="F36" t="n">
-        <v>0.117606573269498</v>
+        <v>0.117521840782342</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0605690070437239</v>
+        <v>0.0606087504339718</v>
       </c>
       <c r="H36" t="n">
-        <v>1.94169558012731</v>
+        <v>1.93902431482022</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0770564751818624</v>
+        <v>0.0774114899903887</v>
       </c>
       <c r="J36" t="n">
-        <v>0.128601161224996</v>
+        <v>0.128541811567329</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0693316918125836</v>
+        <v>0.0693957704424488</v>
       </c>
       <c r="L36" t="n">
-        <v>1.85486835620035</v>
+        <v>1.85230037432802</v>
       </c>
       <c r="M36" t="n">
-        <v>0.08942883295702</v>
+        <v>0.0898200774338137</v>
       </c>
       <c r="N36"/>
       <c r="O36"/>
@@ -2792,40 +2792,40 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>0.105938334438393</v>
+        <v>0.109577639000137</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0579085560166903</v>
+        <v>0.058744223148303</v>
       </c>
       <c r="D37" t="n">
-        <v>1.82940728841279</v>
+        <v>1.86533471935618</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0930800799199468</v>
+        <v>0.0875624007997299</v>
       </c>
       <c r="F37" t="n">
-        <v>0.116738576843906</v>
+        <v>0.116857225620106</v>
       </c>
       <c r="G37" t="n">
-        <v>0.064234600683561</v>
+        <v>0.0642344625539032</v>
       </c>
       <c r="H37" t="n">
-        <v>1.81737841601905</v>
+        <v>1.81922944435075</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0950058313822906</v>
+        <v>0.0947073349992788</v>
       </c>
       <c r="J37" t="n">
-        <v>0.133533239154554</v>
+        <v>0.133664640896598</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0770873941696829</v>
+        <v>0.0771152797419074</v>
       </c>
       <c r="L37" t="n">
-        <v>1.73223184663141</v>
+        <v>1.73330942121915</v>
       </c>
       <c r="M37" t="n">
-        <v>0.109675997486477</v>
+        <v>0.109477981902079</v>
       </c>
       <c r="N37"/>
       <c r="O37"/>
@@ -2845,40 +2845,40 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>0.135637586405919</v>
+        <v>0.138624390407394</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0564878562062478</v>
+        <v>0.0582554814395807</v>
       </c>
       <c r="D38" t="n">
-        <v>2.4011813426001</v>
+        <v>2.37959393660093</v>
       </c>
       <c r="E38" t="n">
-        <v>0.034092673207442</v>
+        <v>0.0354564419087875</v>
       </c>
       <c r="F38" t="n">
-        <v>0.147905468071742</v>
+        <v>0.147911033932153</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0657524731561669</v>
+        <v>0.065761118570764</v>
       </c>
       <c r="H38" t="n">
-        <v>2.24942821117094</v>
+        <v>2.24921712323049</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0447722315796987</v>
+        <v>0.0447888057263237</v>
       </c>
       <c r="J38" t="n">
-        <v>0.154336199285152</v>
+        <v>0.154334586730955</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0717428231209045</v>
+        <v>0.0717713626286103</v>
       </c>
       <c r="L38" t="n">
-        <v>2.15124234831207</v>
+        <v>2.15036445008824</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0533317549180503</v>
+        <v>0.0534143229503614</v>
       </c>
       <c r="N38"/>
       <c r="O38"/>
@@ -2898,40 +2898,40 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>0.13855978331549</v>
+        <v>0.141237395744237</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0546337180715732</v>
+        <v>0.0560968321211198</v>
       </c>
       <c r="D39" t="n">
-        <v>2.53615877165762</v>
+        <v>2.51774281013389</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0263003229312423</v>
+        <v>0.0272068856336037</v>
       </c>
       <c r="F39" t="n">
-        <v>0.14956902025205</v>
+        <v>0.149707235796286</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0624478544511121</v>
+        <v>0.0624100325678799</v>
       </c>
       <c r="H39" t="n">
-        <v>2.39510262709091</v>
+        <v>2.39876874977525</v>
       </c>
       <c r="I39" t="n">
-        <v>0.034024393644462</v>
+        <v>0.0337966899996117</v>
       </c>
       <c r="J39" t="n">
-        <v>0.154873439730003</v>
+        <v>0.155249814513031</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0682702992969506</v>
+        <v>0.068243042796162</v>
       </c>
       <c r="L39" t="n">
-        <v>2.26853318829555</v>
+        <v>2.27495445911979</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0427871123551456</v>
+        <v>0.0422937989237305</v>
       </c>
       <c r="N39"/>
       <c r="O39"/>
@@ -2951,40 +2951,40 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>0.000200175899355048</v>
+        <v>0.000158317513850867</v>
       </c>
       <c r="C40" t="n">
-        <v>0.00012286807741966</v>
+        <v>0.000123357407613016</v>
       </c>
       <c r="D40" t="n">
-        <v>1.62919371376944</v>
+        <v>1.28340500108047</v>
       </c>
       <c r="E40" t="n">
-        <v>0.15940907128315</v>
+        <v>0.251470791853247</v>
       </c>
       <c r="F40" t="n">
-        <v>0.000284510563984358</v>
+        <v>0.000284664016854237</v>
       </c>
       <c r="G40" t="n">
-        <v>0.00010553231017346</v>
+        <v>0.000106041651099053</v>
       </c>
       <c r="H40" t="n">
-        <v>2.69595693979139</v>
+        <v>2.68445477700392</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0410865755894923</v>
+        <v>0.0416679956348001</v>
       </c>
       <c r="J40" t="n">
-        <v>0.000218198064721294</v>
+        <v>0.000218424488707915</v>
       </c>
       <c r="K40" t="n">
-        <v>0.000233447489936231</v>
+        <v>0.000234249534733668</v>
       </c>
       <c r="L40" t="n">
-        <v>0.934677279164138</v>
+        <v>0.93244363945591</v>
       </c>
       <c r="M40" t="n">
-        <v>0.392807030971776</v>
+        <v>0.393842592094373</v>
       </c>
       <c r="N40"/>
       <c r="O40"/>
@@ -3004,40 +3004,40 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.00404760246832672</v>
+        <v>-0.00500682561094935</v>
       </c>
       <c r="C41" t="n">
-        <v>0.00553871913379146</v>
+        <v>0.00538023532457861</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.730783123417919</v>
+        <v>-0.930596025805153</v>
       </c>
       <c r="E41" t="n">
-        <v>0.477825126778824</v>
+        <v>0.368932524825143</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.00529275106052595</v>
+        <v>-0.00517660934170277</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0058689327486489</v>
+        <v>0.00586453702588533</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.901825133665811</v>
+        <v>-0.882697017488996</v>
       </c>
       <c r="I41" t="n">
-        <v>0.383477561365635</v>
+        <v>0.393335648583932</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.0187507427958997</v>
+        <v>-0.0188022175036813</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0105951142964576</v>
+        <v>0.0105982692900799</v>
       </c>
       <c r="L41" t="n">
-        <v>-1.76975370640115</v>
+        <v>-1.7740837667977</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0999962732148222</v>
+        <v>0.0992199353476873</v>
       </c>
       <c r="N41"/>
       <c r="O41"/>
@@ -3057,40 +3057,40 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.0537253237749503</v>
+        <v>-0.0534155535543676</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0130945888760787</v>
+        <v>0.01292090131027</v>
       </c>
       <c r="D42" t="n">
-        <v>-4.10286449489806</v>
+        <v>-4.13404237612365</v>
       </c>
       <c r="E42" t="n">
-        <v>0.00103539815468972</v>
+        <v>0.000973872926021031</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.0611291553575842</v>
+        <v>-0.060648369141884</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0139528810011632</v>
+        <v>0.013999015054352</v>
       </c>
       <c r="H42" t="n">
-        <v>-4.38111350283058</v>
+        <v>-4.33233116090046</v>
       </c>
       <c r="I42" t="n">
-        <v>0.000600029386679831</v>
+        <v>0.000659988716064321</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.0719099290048114</v>
+        <v>-0.0713067221334352</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0169079038893235</v>
+        <v>0.0168962328499656</v>
       </c>
       <c r="L42" t="n">
-        <v>-4.25303630039079</v>
+        <v>-4.22027340452877</v>
       </c>
       <c r="M42" t="n">
-        <v>0.000770110701298576</v>
+        <v>0.000821322614650042</v>
       </c>
       <c r="N42"/>
       <c r="O42"/>
@@ -3110,28 +3110,28 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>0.00186548516765688</v>
+        <v>0.00210573849909423</v>
       </c>
       <c r="C43" t="n">
-        <v>0.00951469623549691</v>
+        <v>0.00939669282689424</v>
       </c>
       <c r="D43" t="n">
-        <v>0.196063554892822</v>
+        <v>0.224093576100242</v>
       </c>
       <c r="E43" t="n">
-        <v>0.848925366836696</v>
+        <v>0.82767898084705</v>
       </c>
       <c r="F43" t="n">
-        <v>0.000500354354805036</v>
+        <v>0.000500326655169082</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0107229042477118</v>
+        <v>0.0107262378011879</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0466622048697124</v>
+        <v>0.0466451205392512</v>
       </c>
       <c r="I43" t="n">
-        <v>0.963816501441643</v>
+        <v>0.963829640388524</v>
       </c>
       <c r="J43"/>
       <c r="K43"/>
@@ -3155,28 +3155,28 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.0600044219314927</v>
+        <v>-0.0620763199398635</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0298566337971687</v>
+        <v>0.0303168800264348</v>
       </c>
       <c r="D44" t="n">
-        <v>-2.00975174693615</v>
+        <v>-2.04758272901882</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0670690305470277</v>
+        <v>0.0627850721866694</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.0818140470487724</v>
+        <v>-0.0820965987578864</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0396870832756742</v>
+        <v>0.0396141757943897</v>
       </c>
       <c r="H44" t="n">
-        <v>-2.06147794939921</v>
+        <v>-2.07240456507272</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0609941444778266</v>
+        <v>0.0598121570307065</v>
       </c>
       <c r="J44"/>
       <c r="K44"/>
@@ -3200,28 +3200,28 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.00113520738948267</v>
+        <v>0.0000814636563643234</v>
       </c>
       <c r="C45" t="n">
-        <v>0.00814058297456365</v>
+        <v>0.0086302667554788</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.139450380031723</v>
+        <v>0.00943929761065698</v>
       </c>
       <c r="E45" t="n">
-        <v>0.891847344435372</v>
+        <v>0.992655812389901</v>
       </c>
       <c r="F45" t="n">
-        <v>0.00136953021942715</v>
+        <v>0.0013681296248967</v>
       </c>
       <c r="G45" t="n">
-        <v>0.00983220826481569</v>
+        <v>0.00981711303005606</v>
       </c>
       <c r="H45" t="n">
-        <v>0.13929019631612</v>
+        <v>0.139361706512702</v>
       </c>
       <c r="I45" t="n">
-        <v>0.892352298991288</v>
+        <v>0.892298083544643</v>
       </c>
       <c r="J45"/>
       <c r="K45"/>
@@ -3245,28 +3245,28 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.0045351412256742</v>
+        <v>-0.00514344876171044</v>
       </c>
       <c r="C46" t="n">
-        <v>0.00706668433141703</v>
+        <v>0.00727875301473129</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.641763663548957</v>
+        <v>-0.706638726619895</v>
       </c>
       <c r="E46" t="n">
-        <v>0.532538903212416</v>
+        <v>0.492435721763817</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.00739728108453686</v>
+        <v>-0.00739265939804914</v>
       </c>
       <c r="G46" t="n">
-        <v>0.00954123470869129</v>
+        <v>0.00952704487057931</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.775295997885739</v>
+        <v>-0.775965632415418</v>
       </c>
       <c r="I46" t="n">
-        <v>0.453641201603222</v>
+        <v>0.453287857898827</v>
       </c>
       <c r="J46"/>
       <c r="K46"/>
@@ -3290,28 +3290,28 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0250738376211409</v>
+        <v>0.0241383941886723</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0127618495321435</v>
+        <v>0.0131321259535809</v>
       </c>
       <c r="D47" t="n">
-        <v>1.96474951048333</v>
+        <v>1.83811777879652</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0888441162771723</v>
+        <v>0.106820000486852</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0395116777637996</v>
+        <v>0.0396631383078267</v>
       </c>
       <c r="G47" t="n">
-        <v>0.016106328412724</v>
+        <v>0.0161126233609994</v>
       </c>
       <c r="H47" t="n">
-        <v>2.45317720782257</v>
+        <v>2.46161890706335</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0426156219071076</v>
+        <v>0.0417484812199821</v>
       </c>
       <c r="J47"/>
       <c r="K47"/>
@@ -3335,28 +3335,28 @@
         <v>71</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.00753616357224169</v>
+        <v>-0.00746101925085163</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0106667830169389</v>
+        <v>0.0109823232348432</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.706507628426884</v>
+        <v>-0.679366204336468</v>
       </c>
       <c r="E48" t="n">
-        <v>0.49452466890147</v>
+        <v>0.510893748832907</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.00603865986066154</v>
+        <v>-0.00598479793908853</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0140649545939407</v>
+        <v>0.0140603965702082</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.429340871335842</v>
+        <v>-0.425649298666966</v>
       </c>
       <c r="I48" t="n">
-        <v>0.675800316189312</v>
+        <v>0.678411523781693</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
@@ -3380,28 +3380,28 @@
         <v>72</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0145136513228236</v>
+        <v>0.0130933256320679</v>
       </c>
       <c r="C49" t="n">
-        <v>0.00720721932234726</v>
+        <v>0.00739387738847653</v>
       </c>
       <c r="D49" t="n">
-        <v>2.01376573595055</v>
+        <v>1.77083348074909</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0657331829769629</v>
+        <v>0.10052413498362</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0130431038475402</v>
+        <v>0.0129994390218327</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0104311790105813</v>
+        <v>0.0104353613903328</v>
       </c>
       <c r="H49" t="n">
-        <v>1.25039593648133</v>
+        <v>1.2457104776338</v>
       </c>
       <c r="I49" t="n">
-        <v>0.233453258112716</v>
+        <v>0.235103855368756</v>
       </c>
       <c r="J49"/>
       <c r="K49"/>
@@ -3425,28 +3425,28 @@
         <v>73</v>
       </c>
       <c r="B50" t="n">
-        <v>0.00000214619795050134</v>
+        <v>0.00000257118128327434</v>
       </c>
       <c r="C50" t="n">
-        <v>0.00000582408510688327</v>
+        <v>0.00000584634198189214</v>
       </c>
       <c r="D50" t="n">
-        <v>0.368503878482962</v>
+        <v>0.439793171736798</v>
       </c>
       <c r="E50" t="n">
-        <v>0.720228110430776</v>
+        <v>0.669311311224069</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0000054127715556837</v>
+        <v>0.00000542180838389584</v>
       </c>
       <c r="G50" t="n">
-        <v>0.00000723405615207118</v>
+        <v>0.00000722253973737218</v>
       </c>
       <c r="H50" t="n">
-        <v>0.748234661426284</v>
+        <v>0.750678927502653</v>
       </c>
       <c r="I50" t="n">
-        <v>0.475446261859863</v>
+        <v>0.474074659484769</v>
       </c>
       <c r="J50"/>
       <c r="K50"/>
@@ -3470,28 +3470,28 @@
         <v>74</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0000123068130922138</v>
+        <v>0.000012724522131438</v>
       </c>
       <c r="C51" t="n">
-        <v>0.00000291910837535659</v>
+        <v>0.00000297790090432407</v>
       </c>
       <c r="D51" t="n">
-        <v>4.21594936183568</v>
+        <v>4.27298373594679</v>
       </c>
       <c r="E51" t="n">
-        <v>0.000980491051592545</v>
+        <v>0.000857137937115472</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0000158036789994957</v>
+        <v>0.0000158080904174098</v>
       </c>
       <c r="G51" t="n">
-        <v>0.00000359962009192803</v>
+        <v>0.00000359805499520065</v>
       </c>
       <c r="H51" t="n">
-        <v>4.39037414946503</v>
+        <v>4.39350994870723</v>
       </c>
       <c r="I51" t="n">
-        <v>0.000835180401514333</v>
+        <v>0.000831865090122588</v>
       </c>
       <c r="J51"/>
       <c r="K51"/>
@@ -3515,16 +3515,16 @@
         <v>75</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.345722574080817</v>
+        <v>-0.249457634649182</v>
       </c>
       <c r="C52" t="n">
-        <v>0.308538247590481</v>
+        <v>0.222365647381822</v>
       </c>
       <c r="D52" t="n">
-        <v>-1.1205177211601</v>
+        <v>-1.12183530858452</v>
       </c>
       <c r="E52" t="n">
-        <v>0.315035389556087</v>
+        <v>0.322744476528369</v>
       </c>
       <c r="F52"/>
       <c r="G52"/>
@@ -3552,16 +3552,16 @@
         <v>76</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.217750607663883</v>
+        <v>-0.1817339512237</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0656828601418126</v>
+        <v>0.0610787410767682</v>
       </c>
       <c r="D53" t="n">
-        <v>-3.31518157391059</v>
+        <v>-2.97540433905283</v>
       </c>
       <c r="E53" t="n">
-        <v>0.00663371177673239</v>
+        <v>0.0125644911060358</v>
       </c>
       <c r="F53"/>
       <c r="G53"/>
@@ -3589,16 +3589,16 @@
         <v>77</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.614477821584398</v>
+        <v>-0.622110080670368</v>
       </c>
       <c r="C54" t="n">
-        <v>0.135951069739972</v>
+        <v>0.155359930491388</v>
       </c>
       <c r="D54" t="n">
-        <v>-4.51984543232858</v>
+        <v>-4.00431487515923</v>
       </c>
       <c r="E54" t="n">
-        <v>0.000726353601653701</v>
+        <v>0.00164180581696114</v>
       </c>
       <c r="F54"/>
       <c r="G54"/>
@@ -3626,16 +3626,16 @@
         <v>78</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0895378195473594</v>
+        <v>0.0838769759237084</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0429090522565366</v>
+        <v>0.0496454365194472</v>
       </c>
       <c r="D55" t="n">
-        <v>2.08668835219308</v>
+        <v>1.68952036288072</v>
       </c>
       <c r="E55" t="n">
-        <v>0.057452007260765</v>
+        <v>0.111639162912788</v>
       </c>
       <c r="F55"/>
       <c r="G55"/>
@@ -3663,16 +3663,16 @@
         <v>79</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.715741237625004</v>
+        <v>-0.746334502619793</v>
       </c>
       <c r="C56" t="n">
-        <v>0.123668467366773</v>
+        <v>0.113123765116013</v>
       </c>
       <c r="D56" t="n">
-        <v>-5.787580721788</v>
+        <v>-6.59750408638182</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0000750631639734009</v>
+        <v>0.0000167672473176518</v>
       </c>
       <c r="F56"/>
       <c r="G56"/>
